--- a/doc/综合账户-开发计划V0.1.xlsx
+++ b/doc/综合账户-开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
   <si>
     <t>开始时间</t>
   </si>
@@ -326,6 +326,10 @@
   </si>
   <si>
     <t>+提现log,+记账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁坤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -563,85 +567,53 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -698,6 +670,41 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1062,8 +1069,8 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1110,7 +1117,7 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1123,10 +1130,10 @@
       <c r="G2" s="17">
         <v>5</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="37">
         <v>42991</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="37">
         <v>42998</v>
       </c>
       <c r="J2" s="12"/>
@@ -1139,7 +1146,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1150,10 +1157,10 @@
       <c r="G3" s="17">
         <v>5</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="37">
         <v>43003</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="37">
         <v>43007</v>
       </c>
       <c r="J3" s="12"/>
@@ -1166,7 +1173,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1177,10 +1184,10 @@
       <c r="G4" s="17">
         <v>15</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="37">
         <v>43017</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="37">
         <v>43039</v>
       </c>
       <c r="J4" s="12"/>
@@ -1195,8 +1202,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -1210,10 +1217,10 @@
       <c r="G5" s="17">
         <v>0.5</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="37">
         <v>43089</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="37">
         <v>43089</v>
       </c>
       <c r="J5" s="12"/>
@@ -1226,9 +1233,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -1239,10 +1246,10 @@
       <c r="G6" s="17">
         <v>0.3</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="37">
         <v>43089</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="37">
         <v>43089</v>
       </c>
       <c r="J6" s="12"/>
@@ -1255,9 +1262,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1266,10 +1273,10 @@
       <c r="G7" s="17">
         <v>0.3</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="37">
         <v>43089</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="37">
         <v>43090</v>
       </c>
       <c r="J7" s="12"/>
@@ -1282,8 +1289,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
@@ -1293,10 +1300,10 @@
       <c r="G8" s="17">
         <v>0.2</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="37">
         <v>43090</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="37">
         <v>43090</v>
       </c>
       <c r="J8" s="12"/>
@@ -1309,9 +1316,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="18" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1322,10 +1329,10 @@
       <c r="G9" s="17">
         <v>0.2</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="37">
         <v>43091</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="37">
         <v>43091</v>
       </c>
       <c r="J9" s="12"/>
@@ -1338,9 +1345,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
@@ -1349,10 +1356,10 @@
       <c r="G10" s="17">
         <v>0.2</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="37">
         <v>43091</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="37">
         <v>43091</v>
       </c>
       <c r="J10" s="12"/>
@@ -1365,9 +1372,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1376,10 +1383,10 @@
       <c r="G11" s="17">
         <v>0.2</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="37">
         <v>43091</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="37">
         <v>43091</v>
       </c>
       <c r="J11" s="12"/>
@@ -1392,8 +1399,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -1407,10 +1414,10 @@
       <c r="G12" s="17">
         <v>0.4</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="37">
         <v>43094</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="37">
         <v>43094</v>
       </c>
       <c r="J12" s="12"/>
@@ -1423,9 +1430,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -1436,10 +1443,10 @@
       <c r="G13" s="17">
         <v>0.3</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="37">
         <v>43094</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="37">
         <v>43094</v>
       </c>
       <c r="J13" s="12"/>
@@ -1452,9 +1459,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="16" t="s">
         <v>12</v>
       </c>
@@ -1463,10 +1470,10 @@
       <c r="G14" s="17">
         <v>0.3</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="37">
         <v>43094</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="37">
         <v>43094</v>
       </c>
       <c r="J14" s="12"/>
@@ -1479,8 +1486,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
@@ -1490,10 +1497,10 @@
       <c r="G15" s="17">
         <v>0.2</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="37">
         <v>43095</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="37">
         <v>43095</v>
       </c>
       <c r="J15" s="12"/>
@@ -1506,9 +1513,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1519,10 +1526,10 @@
       <c r="G16" s="17">
         <v>0.2</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="37">
         <v>43095</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="37">
         <v>43095</v>
       </c>
       <c r="J16" s="12"/>
@@ -1535,9 +1542,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1546,10 +1553,10 @@
       <c r="G17" s="17">
         <v>0.2</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="37">
         <v>43095</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="37">
         <v>43095</v>
       </c>
       <c r="J17" s="12"/>
@@ -1562,9 +1569,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1573,10 +1580,10 @@
       <c r="G18" s="17">
         <v>0.2</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="37">
         <v>43095</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="37">
         <v>43095</v>
       </c>
       <c r="J18" s="12"/>
@@ -1589,9 +1596,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1602,10 +1609,10 @@
       <c r="G19" s="17">
         <v>0.5</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="37">
         <v>43096</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="37">
         <v>43096</v>
       </c>
       <c r="J19" s="12"/>
@@ -1618,9 +1625,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1629,10 +1636,10 @@
       <c r="G20" s="17">
         <v>1</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="37">
         <v>43096</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="37">
         <v>43097</v>
       </c>
       <c r="J20" s="12"/>
@@ -1645,9 +1652,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1656,10 +1663,10 @@
       <c r="G21" s="17">
         <v>0.5</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="37">
         <v>43097</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="37">
         <v>43098</v>
       </c>
       <c r="J21" s="12"/>
@@ -1672,8 +1679,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -1697,8 +1704,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="16" t="s">
         <v>38</v>
       </c>
@@ -1718,9 +1725,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="18" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1741,9 +1748,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1762,15 +1769,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="18" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="39" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="36" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="16"/>
@@ -1787,13 +1794,13 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="36" t="s">
         <v>46</v>
       </c>
       <c r="F27" s="16"/>
@@ -1810,13 +1817,13 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="16"/>
@@ -1833,13 +1840,13 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F29" s="16"/>
@@ -1856,13 +1863,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="43" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="16"/>
-      <c r="E30" s="33"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17">
         <v>2</v>
@@ -1877,12 +1884,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="18" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="39" t="s">
         <v>76</v>
       </c>
       <c r="E31" s="16" t="s">
@@ -1902,10 +1909,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="16" t="s">
         <v>72</v>
       </c>
@@ -1923,10 +1930,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="16" t="s">
         <v>71</v>
       </c>
@@ -1944,10 +1951,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="16" t="s">
         <v>73</v>
       </c>
@@ -1965,10 +1972,10 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="16" t="s">
         <v>69</v>
       </c>
@@ -1986,10 +1993,10 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="37" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="35" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="16" t="s">
@@ -2009,8 +2016,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="43" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -2034,7 +2041,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -2051,10 +2058,10 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -2063,18 +2070,22 @@
       <c r="D39" s="6"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="16"/>
+      <c r="M39" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="31"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="18" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -2082,35 +2093,43 @@
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="12"/>
       <c r="K40" s="13"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="16"/>
+      <c r="M40" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="31"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="16"/>
+      <c r="M41" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="31"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="18" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="39" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -2118,225 +2137,273 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
+      <c r="G42" s="17">
+        <v>2</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="12"/>
       <c r="K42" s="13"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="16"/>
+      <c r="M42" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="31"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
+      <c r="G43" s="17">
+        <v>3</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="12"/>
       <c r="K43" s="13"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="16"/>
+      <c r="M43" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="31"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="12"/>
       <c r="K44" s="13"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="16"/>
+      <c r="M44" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="36" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
+      <c r="G45" s="17">
+        <v>2</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="12"/>
       <c r="K45" s="13"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="16"/>
+      <c r="M45" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="31"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="36" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="G46" s="17">
+        <v>2</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="12"/>
       <c r="K46" s="13"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="16"/>
+      <c r="M46" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="31"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="36" t="s">
         <v>78</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
+      <c r="G47" s="17">
+        <v>3</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="12"/>
       <c r="K47" s="13"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="16"/>
+      <c r="M47" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="31"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="36" t="s">
         <v>79</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="G48" s="17">
+        <v>2</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="12"/>
       <c r="K48" s="13"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="16"/>
+      <c r="M48" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="31"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="36" t="s">
         <v>80</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
+      <c r="G49" s="17">
+        <v>2</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="16"/>
+      <c r="M49" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="31"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="12"/>
       <c r="K50" s="13"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="16"/>
+      <c r="M50" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="36" t="s">
         <v>36</v>
       </c>
       <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="12"/>
       <c r="K51" s="13"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="16"/>
+      <c r="M51" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="31"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="36" t="s">
         <v>77</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
+      <c r="G52" s="17">
+        <v>2</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="12"/>
       <c r="K52" s="13"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="16"/>
+      <c r="M52" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="12"/>
       <c r="K53" s="13"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="16"/>
+      <c r="M53" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -2346,120 +2413,146 @@
       <c r="J54" s="12"/>
       <c r="K54" s="13"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="16"/>
+      <c r="M54" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="31"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="18" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="39" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F55" s="16"/>
-      <c r="G55" s="17"/>
+      <c r="G55" s="17">
+        <v>1</v>
+      </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="12"/>
       <c r="K55" s="13"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="16"/>
+      <c r="M55" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="12"/>
       <c r="K56" s="13"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="16"/>
+      <c r="M56" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F57" s="16"/>
-      <c r="G57" s="17"/>
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="12"/>
       <c r="K57" s="13"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="16"/>
+      <c r="M57" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="31"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="12"/>
       <c r="K58" s="13"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="16"/>
+      <c r="M58" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="31"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="12"/>
       <c r="K59" s="13"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="16"/>
+      <c r="M59" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="31"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="37" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="35" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="17"/>
+      <c r="G60" s="17">
+        <v>2</v>
+      </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="12"/>
       <c r="K60" s="13"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="16"/>
+      <c r="M60" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="31"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="40" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="16" t="s">
@@ -2467,137 +2560,169 @@
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="12"/>
       <c r="K61" s="13"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="16"/>
+      <c r="M61" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="31"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="40"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
+      <c r="G62" s="17">
+        <v>2</v>
+      </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="12"/>
       <c r="K62" s="13"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="16"/>
+      <c r="M62" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="31"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="40"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="17"/>
+      <c r="G63" s="17">
+        <v>1</v>
+      </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="12"/>
       <c r="K63" s="13"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="16"/>
+      <c r="M63" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="40"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
+      <c r="G64" s="17">
+        <v>1</v>
+      </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="12"/>
       <c r="K64" s="13"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="16"/>
+      <c r="M64" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="40"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="12"/>
       <c r="K65" s="13"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="16"/>
+      <c r="M65" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="40"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="16" t="s">
         <v>70</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="12"/>
       <c r="K66" s="13"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="16"/>
+      <c r="M66" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="40"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
+      <c r="G67" s="17">
+        <v>1</v>
+      </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="12"/>
       <c r="K67" s="13"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="16"/>
+      <c r="M67" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="40"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="16" t="s">
         <v>63</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
+      <c r="G68" s="17">
+        <v>2</v>
+      </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="12"/>
       <c r="K68" s="13"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="16"/>
+      <c r="M68" s="18" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="40"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -2610,7 +2735,7 @@
       <c r="M69" s="16"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
       <c r="D70" s="25"/>
@@ -2630,17 +2755,17 @@
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
-      <c r="F71" s="34" t="s">
+      <c r="F71" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="22">
         <f>SUM(G2:G70)</f>
-        <v>50.899999999999991</v>
+        <v>92.899999999999991</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="36"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="34"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
@@ -2654,20 +2779,20 @@
     <protectedRange sqref="L2:L70" name="区域3"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C42:C54"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C29"/>
     <mergeCell ref="D55:D59"/>
     <mergeCell ref="C55:C60"/>
     <mergeCell ref="A2:A38"/>
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="B22:B36"/>
     <mergeCell ref="D31:D35"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C42:C54"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C24:C25"/>
     <mergeCell ref="A39:A70"/>
     <mergeCell ref="B39:B69"/>
-    <mergeCell ref="C26:C29"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="C6:C7"/>
@@ -2690,48 +2815,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K60 K62:K70">
-    <cfRule type="cellIs" dxfId="4" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="54" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="55" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="56" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="57" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="58" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61">
-    <cfRule type="cellIs" dxfId="12" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="23" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="24" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="17" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="18" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/综合账户-开发计划V0.1.xlsx
+++ b/doc/综合账户-开发计划V0.1.xlsx
@@ -591,14 +591,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
@@ -1069,8 +1069,8 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1117,7 +1117,7 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1146,7 +1146,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="44" t="s">
         <v>8</v>
       </c>
@@ -1233,9 +1233,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="40" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -1262,9 +1262,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="44"/>
       <c r="C8" s="16" t="s">
         <v>18</v>
@@ -1316,9 +1316,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="40" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1345,9 +1345,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
@@ -1372,9 +1372,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="44" t="s">
         <v>7</v>
       </c>
@@ -1430,9 +1430,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="40" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -1459,9 +1459,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="16" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="44"/>
       <c r="C15" s="16" t="s">
         <v>18</v>
@@ -1513,9 +1513,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="40" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1542,9 +1542,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1569,9 +1569,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1596,9 +1596,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1625,9 +1625,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="39"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1652,9 +1652,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1679,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -1704,8 +1704,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="16" t="s">
         <v>38</v>
       </c>
@@ -1725,9 +1725,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="39" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1748,9 +1748,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="39"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1769,9 +1769,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="39" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1794,9 +1794,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
@@ -1817,9 +1817,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="39"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="16" t="s">
         <v>32</v>
       </c>
@@ -1840,9 +1840,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="39"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
@@ -1863,8 +1863,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="38" t="s">
         <v>66</v>
       </c>
@@ -1884,12 +1884,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="39" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="40" t="s">
         <v>76</v>
       </c>
       <c r="E31" s="16" t="s">
@@ -1909,10 +1909,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="16" t="s">
         <v>72</v>
       </c>
@@ -1930,10 +1930,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="16" t="s">
         <v>71</v>
       </c>
@@ -1951,10 +1951,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="16" t="s">
         <v>73</v>
       </c>
@@ -1972,10 +1972,10 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="40"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="16" t="s">
         <v>69</v>
       </c>
@@ -1993,9 +1993,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="39"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="35" t="s">
         <v>74</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="40"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="38" t="s">
         <v>48</v>
       </c>
@@ -2041,7 +2041,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="40"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -2085,7 +2085,7 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -2108,7 +2108,7 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="39"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="6" t="s">
         <v>52</v>
       </c>
@@ -2129,7 +2129,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
       <c r="B42" s="43"/>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -2152,8 +2152,8 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="42"/>
       <c r="B43" s="43"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39" t="s">
+      <c r="C43" s="40"/>
+      <c r="D43" s="40" t="s">
         <v>62</v>
       </c>
       <c r="E43" s="16" t="s">
@@ -2175,8 +2175,8 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="42"/>
       <c r="B44" s="43"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="16" t="s">
         <v>43</v>
       </c>
@@ -2196,7 +2196,7 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="42"/>
       <c r="B45" s="43"/>
-      <c r="C45" s="39"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="16" t="s">
         <v>27</v>
       </c>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -2219,7 +2219,7 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
-      <c r="C46" s="39"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="16" t="s">
         <v>28</v>
       </c>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -2242,7 +2242,7 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
-      <c r="C47" s="39"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="16" t="s">
         <v>65</v>
       </c>
@@ -2265,7 +2265,7 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
-      <c r="C48" s="39"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="16" t="s">
         <v>37</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -2288,7 +2288,7 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
-      <c r="C49" s="39"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="16" t="s">
         <v>29</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -2311,7 +2311,7 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="42"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="39"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="16" t="s">
         <v>30</v>
       </c>
@@ -2334,7 +2334,7 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="42"/>
       <c r="B51" s="43"/>
-      <c r="C51" s="39"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="16" t="s">
         <v>31</v>
       </c>
@@ -2357,7 +2357,7 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="42"/>
       <c r="B52" s="43"/>
-      <c r="C52" s="39"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="16" t="s">
         <v>32</v>
       </c>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -2380,7 +2380,7 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="42"/>
       <c r="B53" s="43"/>
-      <c r="C53" s="39"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="16" t="s">
         <v>26</v>
       </c>
@@ -2403,7 +2403,7 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="42"/>
       <c r="B54" s="43"/>
-      <c r="C54" s="39"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -2420,10 +2420,10 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="42"/>
       <c r="B55" s="43"/>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="40" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="16" t="s">
@@ -2445,8 +2445,8 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="42"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="16" t="s">
         <v>72</v>
       </c>
@@ -2466,8 +2466,8 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="16" t="s">
         <v>71</v>
       </c>
@@ -2487,8 +2487,8 @@
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="16" t="s">
         <v>73</v>
       </c>
@@ -2508,8 +2508,8 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="16" t="s">
         <v>69</v>
       </c>
@@ -2529,7 +2529,7 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
-      <c r="C60" s="39"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="35" t="s">
         <v>74</v>
       </c>
@@ -2552,7 +2552,7 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="42"/>
       <c r="B61" s="43"/>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="39" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="16" t="s">
@@ -2575,7 +2575,7 @@
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="42"/>
       <c r="B62" s="43"/>
-      <c r="C62" s="41"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="16" t="s">
         <v>57</v>
       </c>
@@ -2596,7 +2596,7 @@
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="42"/>
       <c r="B63" s="43"/>
-      <c r="C63" s="41"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="16" t="s">
         <v>58</v>
       </c>
@@ -2617,7 +2617,7 @@
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="42"/>
       <c r="B64" s="43"/>
-      <c r="C64" s="41"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="16" t="s">
         <v>59</v>
       </c>
@@ -2638,7 +2638,7 @@
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="42"/>
       <c r="B65" s="43"/>
-      <c r="C65" s="41"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="16" t="s">
         <v>60</v>
       </c>
@@ -2659,7 +2659,7 @@
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="42"/>
       <c r="B66" s="43"/>
-      <c r="C66" s="41"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="16" t="s">
         <v>70</v>
       </c>
@@ -2680,7 +2680,7 @@
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="42"/>
       <c r="B67" s="43"/>
-      <c r="C67" s="41"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="16" t="s">
         <v>61</v>
       </c>
@@ -2701,7 +2701,7 @@
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="42"/>
       <c r="B68" s="43"/>
-      <c r="C68" s="41"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="16" t="s">
         <v>63</v>
       </c>
@@ -2722,7 +2722,7 @@
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="42"/>
       <c r="B69" s="43"/>
-      <c r="C69" s="41"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G71" s="22">
         <f>SUM(G2:G70)</f>
-        <v>92.899999999999991</v>
+        <v>97.899999999999991</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -2779,14 +2779,6 @@
     <protectedRange sqref="L2:L70" name="区域3"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C42:C54"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="C55:C60"/>
     <mergeCell ref="A2:A38"/>
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="B22:B36"/>
@@ -2800,6 +2792,14 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C42:C54"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L60 L62:L70">

--- a/doc/综合账户-开发计划V0.1.xlsx
+++ b/doc/综合账户-开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -591,14 +591,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
@@ -613,7 +613,103 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -757,8 +853,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1069,8 +1165,8 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1117,7 +1213,7 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1146,7 +1242,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1269,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1298,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="44" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1329,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="44"/>
       <c r="C6" s="40" t="s">
         <v>10</v>
@@ -1262,7 +1358,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="44"/>
       <c r="C7" s="40"/>
       <c r="D7" s="16" t="s">
@@ -1289,7 +1385,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="44"/>
       <c r="C8" s="16" t="s">
         <v>18</v>
@@ -1316,7 +1412,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="44"/>
       <c r="C9" s="40" t="s">
         <v>17</v>
@@ -1338,14 +1434,14 @@
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
       <c r="L9" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="44"/>
       <c r="C10" s="40"/>
       <c r="D10" s="16" t="s">
@@ -1365,14 +1461,14 @@
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
       <c r="L10" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="44"/>
       <c r="C11" s="40"/>
       <c r="D11" s="6" t="s">
@@ -1392,14 +1488,14 @@
       <c r="J11" s="12"/>
       <c r="K11" s="13"/>
       <c r="L11" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="44" t="s">
         <v>7</v>
       </c>
@@ -1430,7 +1526,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="44"/>
       <c r="C13" s="40" t="s">
         <v>10</v>
@@ -1459,7 +1555,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="44"/>
       <c r="C14" s="40"/>
       <c r="D14" s="16" t="s">
@@ -1486,7 +1582,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="44"/>
       <c r="C15" s="16" t="s">
         <v>18</v>
@@ -1513,7 +1609,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="44"/>
       <c r="C16" s="40" t="s">
         <v>17</v>
@@ -1535,14 +1631,14 @@
       <c r="J16" s="12"/>
       <c r="K16" s="13"/>
       <c r="L16" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="44"/>
       <c r="C17" s="40"/>
       <c r="D17" s="16" t="s">
@@ -1562,14 +1658,14 @@
       <c r="J17" s="12"/>
       <c r="K17" s="13"/>
       <c r="L17" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="44"/>
       <c r="C18" s="40"/>
       <c r="D18" s="6" t="s">
@@ -1589,14 +1685,14 @@
       <c r="J18" s="12"/>
       <c r="K18" s="13"/>
       <c r="L18" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="44"/>
       <c r="C19" s="40" t="s">
         <v>21</v>
@@ -1625,7 +1721,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="44"/>
       <c r="C20" s="40"/>
       <c r="D20" s="6" t="s">
@@ -1652,7 +1748,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="44"/>
       <c r="C21" s="40"/>
       <c r="D21" s="6" t="s">
@@ -1679,8 +1775,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -1694,18 +1790,24 @@
       <c r="G22" s="17">
         <v>0.2</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="37">
+        <v>43109</v>
+      </c>
+      <c r="I22" s="37">
+        <v>43109</v>
+      </c>
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
       <c r="M22" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="16" t="s">
         <v>38</v>
       </c>
@@ -1715,18 +1817,24 @@
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="H23" s="37">
+        <v>43109</v>
+      </c>
+      <c r="I23" s="37">
+        <v>43109</v>
+      </c>
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
       <c r="M23" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="40" t="s">
         <v>50</v>
       </c>
@@ -1738,18 +1846,24 @@
       <c r="G24" s="17">
         <v>1</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="H24" s="37">
+        <v>43109</v>
+      </c>
+      <c r="I24" s="37">
+        <v>43109</v>
+      </c>
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
       <c r="M24" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="40"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
@@ -1759,18 +1873,24 @@
       <c r="G25" s="17">
         <v>1</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="H25" s="37">
+        <v>43109</v>
+      </c>
+      <c r="I25" s="37">
+        <v>43109</v>
+      </c>
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
       <c r="M25" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="40" t="s">
         <v>56</v>
       </c>
@@ -1784,8 +1904,8 @@
       <c r="G26" s="17">
         <v>2</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
       <c r="L26" s="4"/>
@@ -1794,8 +1914,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="40"/>
       <c r="D27" s="16" t="s">
         <v>31</v>
@@ -1807,8 +1927,8 @@
       <c r="G27" s="17">
         <v>2</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="12"/>
       <c r="K27" s="13"/>
       <c r="L27" s="4"/>
@@ -1817,8 +1937,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="40"/>
       <c r="D28" s="16" t="s">
         <v>32</v>
@@ -1830,8 +1950,8 @@
       <c r="G28" s="17">
         <v>2</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
       <c r="L28" s="4"/>
@@ -1840,8 +1960,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="40"/>
       <c r="D29" s="16" t="s">
         <v>26</v>
@@ -1853,8 +1973,8 @@
       <c r="G29" s="17">
         <v>1</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
       <c r="L29" s="4"/>
@@ -1863,8 +1983,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="38" t="s">
         <v>66</v>
       </c>
@@ -1874,8 +1994,8 @@
       <c r="G30" s="17">
         <v>2</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
       <c r="L30" s="4"/>
@@ -1884,8 +2004,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="40" t="s">
         <v>55</v>
       </c>
@@ -1899,18 +2019,24 @@
       <c r="G31" s="17">
         <v>1</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="H31" s="37">
+        <v>43102</v>
+      </c>
+      <c r="I31" s="37">
+        <v>43102</v>
+      </c>
       <c r="J31" s="12"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="4"/>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
       <c r="M31" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
       <c r="E32" s="16" t="s">
@@ -1920,18 +2046,24 @@
       <c r="G32" s="17">
         <v>1</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="H32" s="37">
+        <v>43103</v>
+      </c>
+      <c r="I32" s="37">
+        <v>43103</v>
+      </c>
       <c r="J32" s="12"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="4"/>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
       <c r="M32" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
       <c r="E33" s="16" t="s">
@@ -1941,18 +2073,24 @@
       <c r="G33" s="17">
         <v>1</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="H33" s="37">
+        <v>43104</v>
+      </c>
+      <c r="I33" s="37">
+        <v>43104</v>
+      </c>
       <c r="J33" s="12"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="4"/>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
       <c r="M33" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="41"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
       <c r="E34" s="16" t="s">
@@ -1962,18 +2100,24 @@
       <c r="G34" s="17">
         <v>1</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="H34" s="37">
+        <v>43105</v>
+      </c>
+      <c r="I34" s="37">
+        <v>43105</v>
+      </c>
       <c r="J34" s="12"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="4"/>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
       <c r="M34" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="41"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
       <c r="E35" s="16" t="s">
@@ -1983,18 +2127,24 @@
       <c r="G35" s="17">
         <v>1</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="H35" s="37">
+        <v>43108</v>
+      </c>
+      <c r="I35" s="37">
+        <v>43108</v>
+      </c>
       <c r="J35" s="12"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="4"/>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
       <c r="M35" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="41"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="40"/>
       <c r="D36" s="35" t="s">
         <v>74</v>
@@ -2016,7 +2166,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="41"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="38" t="s">
         <v>48</v>
       </c>
@@ -2031,17 +2181,23 @@
       <c r="G37" s="17">
         <v>1</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="H37" s="37">
+        <v>43109</v>
+      </c>
+      <c r="I37" s="37">
+        <v>43109</v>
+      </c>
       <c r="J37" s="12"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="4"/>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
       <c r="M37" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="41"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -2552,7 +2708,7 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="42"/>
       <c r="B61" s="43"/>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="16" t="s">
@@ -2575,7 +2731,7 @@
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="42"/>
       <c r="B62" s="43"/>
-      <c r="C62" s="39"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="16" t="s">
         <v>57</v>
       </c>
@@ -2596,7 +2752,7 @@
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="42"/>
       <c r="B63" s="43"/>
-      <c r="C63" s="39"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="16" t="s">
         <v>58</v>
       </c>
@@ -2617,7 +2773,7 @@
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="42"/>
       <c r="B64" s="43"/>
-      <c r="C64" s="39"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="16" t="s">
         <v>59</v>
       </c>
@@ -2638,7 +2794,7 @@
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="42"/>
       <c r="B65" s="43"/>
-      <c r="C65" s="39"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="16" t="s">
         <v>60</v>
       </c>
@@ -2659,7 +2815,7 @@
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="42"/>
       <c r="B66" s="43"/>
-      <c r="C66" s="39"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="16" t="s">
         <v>70</v>
       </c>
@@ -2680,7 +2836,7 @@
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="42"/>
       <c r="B67" s="43"/>
-      <c r="C67" s="39"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="16" t="s">
         <v>61</v>
       </c>
@@ -2701,7 +2857,7 @@
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="42"/>
       <c r="B68" s="43"/>
-      <c r="C68" s="39"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="16" t="s">
         <v>63</v>
       </c>
@@ -2722,7 +2878,7 @@
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="42"/>
       <c r="B69" s="43"/>
-      <c r="C69" s="39"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -2779,6 +2935,11 @@
     <protectedRange sqref="L2:L70" name="区域3"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="C55:C60"/>
     <mergeCell ref="A2:A38"/>
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="B22:B36"/>
@@ -2795,68 +2956,63 @@
     <mergeCell ref="C61:C69"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="C42:C54"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L60 L62:L70">
-    <cfRule type="cellIs" dxfId="15" priority="114" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L62:L70 L2:L60">
+    <cfRule type="cellIs" dxfId="27" priority="114" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="115" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="116" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="116" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K60 K62:K70">
-    <cfRule type="cellIs" dxfId="12" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="54" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="55" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="56" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="57" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="58" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61">
-    <cfRule type="cellIs" dxfId="7" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="24" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="4" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/综合账户-开发计划V0.1.xlsx
+++ b/doc/综合账户-开发计划V0.1.xlsx
@@ -591,11 +591,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -613,79 +613,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -853,8 +781,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1162,11 +1090,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1184,7 +1112,8 @@
     <col min="11" max="11" width="4.625" style="15" customWidth="1"/>
     <col min="12" max="12" width="6.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="12.375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1213,7 +1142,7 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1242,7 +1171,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1198,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1227,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="44" t="s">
         <v>8</v>
       </c>
@@ -1329,9 +1258,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -1358,9 +1287,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1385,7 +1314,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="44"/>
       <c r="C8" s="16" t="s">
         <v>18</v>
@@ -1412,9 +1341,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1441,9 +1370,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
@@ -1468,9 +1397,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="40"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1495,7 +1424,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="44" t="s">
         <v>7</v>
       </c>
@@ -1526,9 +1455,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -1555,9 +1484,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="40"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="16" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1511,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="44"/>
       <c r="C15" s="16" t="s">
         <v>18</v>
@@ -1609,9 +1538,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1638,9 +1567,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="40"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1665,9 +1594,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="40"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1692,9 +1621,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1721,9 +1650,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1748,9 +1677,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1775,7 +1704,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="41" t="s">
         <v>39</v>
       </c>
@@ -1806,7 +1735,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="16" t="s">
         <v>38</v>
@@ -1833,9 +1762,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1862,9 +1791,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="40"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1889,9 +1818,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="39" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1904,19 +1833,25 @@
       <c r="G26" s="17">
         <v>2</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="H26" s="37">
+        <v>43110</v>
+      </c>
+      <c r="I26" s="37">
+        <v>43112</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4">
+        <v>0.7</v>
+      </c>
       <c r="M26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
@@ -1927,19 +1862,25 @@
       <c r="G27" s="17">
         <v>2</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="H27" s="37">
+        <v>43110</v>
+      </c>
+      <c r="I27" s="37">
+        <v>43112</v>
+      </c>
       <c r="J27" s="12"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="4"/>
+      <c r="L27" s="4">
+        <v>0.7</v>
+      </c>
       <c r="M27" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="40"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="16" t="s">
         <v>32</v>
       </c>
@@ -1960,9 +1901,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
@@ -1983,7 +1924,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="41"/>
       <c r="C30" s="38" t="s">
         <v>66</v>
@@ -2004,12 +1945,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="41"/>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>76</v>
       </c>
       <c r="E31" s="16" t="s">
@@ -2035,10 +1976,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="41"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="16" t="s">
         <v>72</v>
       </c>
@@ -2061,11 +2002,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="39"/>
+    <row r="33" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="40"/>
       <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="16" t="s">
         <v>71</v>
       </c>
@@ -2088,11 +2029,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="39"/>
+    <row r="34" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="40"/>
       <c r="B34" s="41"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="16" t="s">
         <v>73</v>
       </c>
@@ -2115,11 +2056,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="39"/>
+    <row r="35" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="40"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="16" t="s">
         <v>69</v>
       </c>
@@ -2142,10 +2083,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="39"/>
+    <row r="36" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="40"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="35" t="s">
         <v>74</v>
       </c>
@@ -2165,8 +2106,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="40"/>
       <c r="B37" s="38" t="s">
         <v>48</v>
       </c>
@@ -2196,8 +2137,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
+    <row r="38" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="40"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -2212,8 +2153,12 @@
       <c r="M38" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N38" s="5">
+        <f>SUM(G5:G37)</f>
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="42" t="s">
         <v>41</v>
       </c>
@@ -2238,10 +2183,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -2261,10 +2206,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="6" t="s">
         <v>52</v>
       </c>
@@ -2282,10 +2227,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
       <c r="B42" s="43"/>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="39" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -2305,11 +2250,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="42"/>
       <c r="B43" s="43"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40" t="s">
+      <c r="C43" s="39"/>
+      <c r="D43" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E43" s="16" t="s">
@@ -2328,11 +2273,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="42"/>
       <c r="B44" s="43"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="16" t="s">
         <v>43</v>
       </c>
@@ -2349,10 +2294,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="42"/>
       <c r="B45" s="43"/>
-      <c r="C45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="16" t="s">
         <v>27</v>
       </c>
@@ -2372,10 +2317,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
-      <c r="C46" s="40"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="16" t="s">
         <v>28</v>
       </c>
@@ -2395,10 +2340,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
-      <c r="C47" s="40"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="16" t="s">
         <v>65</v>
       </c>
@@ -2418,10 +2363,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
-      <c r="C48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="16" t="s">
         <v>37</v>
       </c>
@@ -2444,7 +2389,7 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
-      <c r="C49" s="40"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="16" t="s">
         <v>29</v>
       </c>
@@ -2467,7 +2412,7 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="42"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="40"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="16" t="s">
         <v>30</v>
       </c>
@@ -2490,7 +2435,7 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="42"/>
       <c r="B51" s="43"/>
-      <c r="C51" s="40"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="16" t="s">
         <v>31</v>
       </c>
@@ -2513,7 +2458,7 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="42"/>
       <c r="B52" s="43"/>
-      <c r="C52" s="40"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="16" t="s">
         <v>32</v>
       </c>
@@ -2536,7 +2481,7 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="42"/>
       <c r="B53" s="43"/>
-      <c r="C53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="16" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2504,7 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="42"/>
       <c r="B54" s="43"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -2576,10 +2521,10 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="42"/>
       <c r="B55" s="43"/>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="39" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="16" t="s">
@@ -2601,8 +2546,8 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="42"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="16" t="s">
         <v>72</v>
       </c>
@@ -2622,8 +2567,8 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="16" t="s">
         <v>71</v>
       </c>
@@ -2643,8 +2588,8 @@
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="16" t="s">
         <v>73</v>
       </c>
@@ -2664,8 +2609,8 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="16" t="s">
         <v>69</v>
       </c>
@@ -2685,7 +2630,7 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
-      <c r="C60" s="40"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="35" t="s">
         <v>74</v>
       </c>
@@ -2935,11 +2880,6 @@
     <protectedRange sqref="L2:L70" name="区域3"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="C55:C60"/>
     <mergeCell ref="A2:A38"/>
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="B22:B36"/>
@@ -2956,63 +2896,68 @@
     <mergeCell ref="C61:C69"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="C42:C54"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L62:L70 L2:L60">
-    <cfRule type="cellIs" dxfId="27" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="114" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="115" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="116" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="116" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K60 K62:K70">
-    <cfRule type="cellIs" dxfId="24" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="54" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="55" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="56" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="57" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="58" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61">
-    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="23" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/综合账户-开发计划V0.1.xlsx
+++ b/doc/综合账户-开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\hsd-servers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -591,11 +591,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -613,7 +613,151 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -781,8 +925,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1093,8 +1237,8 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P54" activeCellId="1" sqref="L51 P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1142,7 +1286,7 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1171,7 +1315,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1198,7 +1342,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1371,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="44" t="s">
         <v>8</v>
       </c>
@@ -1258,9 +1402,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="40" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -1287,9 +1431,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1314,7 +1458,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="44"/>
       <c r="C8" s="16" t="s">
         <v>18</v>
@@ -1341,9 +1485,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="40" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1370,9 +1514,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
@@ -1397,9 +1541,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1424,7 +1568,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="44" t="s">
         <v>7</v>
       </c>
@@ -1455,9 +1599,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="40" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -1484,9 +1628,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="16" t="s">
         <v>12</v>
       </c>
@@ -1511,7 +1655,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="44"/>
       <c r="C15" s="16" t="s">
         <v>18</v>
@@ -1538,9 +1682,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="40" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1567,9 +1711,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1594,9 +1738,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1621,9 +1765,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1650,9 +1794,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="39"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1677,9 +1821,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1848,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="41" t="s">
         <v>39</v>
       </c>
@@ -1735,7 +1879,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="41"/>
       <c r="C23" s="16" t="s">
         <v>38</v>
@@ -1762,9 +1906,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1791,9 +1935,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="39"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1818,9 +1962,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="40" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1849,9 +1993,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="39"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
@@ -1878,9 +2022,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="16" t="s">
         <v>32</v>
       </c>
@@ -1901,9 +2045,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="39"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
@@ -1924,7 +2068,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="41"/>
       <c r="C30" s="38" t="s">
         <v>66</v>
@@ -1945,12 +2089,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="41"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="40" t="s">
         <v>76</v>
       </c>
       <c r="E31" s="16" t="s">
@@ -1976,10 +2120,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="41"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="16" t="s">
         <v>72</v>
       </c>
@@ -2003,10 +2147,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="41"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="16" t="s">
         <v>71</v>
       </c>
@@ -2030,10 +2174,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="41"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="16" t="s">
         <v>73</v>
       </c>
@@ -2057,10 +2201,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="16" t="s">
         <v>69</v>
       </c>
@@ -2084,9 +2228,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="40"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="39"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="35" t="s">
         <v>74</v>
       </c>
@@ -2107,7 +2251,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="40"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="38" t="s">
         <v>48</v>
       </c>
@@ -2138,7 +2282,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="40"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -2174,11 +2318,17 @@
       <c r="G39" s="17">
         <v>1</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="H39" s="37">
+        <v>43102</v>
+      </c>
+      <c r="I39" s="37">
+        <v>43102</v>
+      </c>
       <c r="J39" s="12"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="4"/>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
       <c r="M39" s="16" t="s">
         <v>81</v>
       </c>
@@ -2186,7 +2336,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -2197,11 +2347,17 @@
       <c r="G40" s="17">
         <v>1</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="H40" s="37">
+        <v>43103</v>
+      </c>
+      <c r="I40" s="37">
+        <v>43103</v>
+      </c>
       <c r="J40" s="12"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="4"/>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
       <c r="M40" s="18" t="s">
         <v>81</v>
       </c>
@@ -2209,7 +2365,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="39"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="6" t="s">
         <v>52</v>
       </c>
@@ -2218,11 +2374,17 @@
       <c r="G41" s="17">
         <v>1</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="H41" s="37">
+        <v>43104</v>
+      </c>
+      <c r="I41" s="37">
+        <v>43104</v>
+      </c>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="4"/>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
       <c r="M41" s="18" t="s">
         <v>81</v>
       </c>
@@ -2230,7 +2392,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
       <c r="B42" s="43"/>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -2253,8 +2415,8 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="42"/>
       <c r="B43" s="43"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39" t="s">
+      <c r="C43" s="40"/>
+      <c r="D43" s="40" t="s">
         <v>62</v>
       </c>
       <c r="E43" s="16" t="s">
@@ -2264,11 +2426,17 @@
       <c r="G43" s="17">
         <v>3</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="H43" s="37">
+        <v>43108</v>
+      </c>
+      <c r="I43" s="37">
+        <v>43110</v>
+      </c>
       <c r="J43" s="12"/>
       <c r="K43" s="13"/>
-      <c r="L43" s="4"/>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
       <c r="M43" s="18" t="s">
         <v>81</v>
       </c>
@@ -2276,8 +2444,8 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="42"/>
       <c r="B44" s="43"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="16" t="s">
         <v>43</v>
       </c>
@@ -2285,11 +2453,17 @@
       <c r="G44" s="17">
         <v>1</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="H44" s="37">
+        <v>43105</v>
+      </c>
+      <c r="I44" s="37">
+        <v>43105</v>
+      </c>
       <c r="J44" s="12"/>
       <c r="K44" s="13"/>
-      <c r="L44" s="4"/>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
       <c r="M44" s="18" t="s">
         <v>81</v>
       </c>
@@ -2297,7 +2471,7 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="42"/>
       <c r="B45" s="43"/>
-      <c r="C45" s="39"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="16" t="s">
         <v>27</v>
       </c>
@@ -2320,7 +2494,7 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
-      <c r="C46" s="39"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="16" t="s">
         <v>28</v>
       </c>
@@ -2343,7 +2517,7 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
-      <c r="C47" s="39"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="16" t="s">
         <v>65</v>
       </c>
@@ -2366,7 +2540,7 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
-      <c r="C48" s="39"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="16" t="s">
         <v>37</v>
       </c>
@@ -2389,7 +2563,7 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
-      <c r="C49" s="39"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="16" t="s">
         <v>29</v>
       </c>
@@ -2412,7 +2586,7 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="42"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="39"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="16" t="s">
         <v>30</v>
       </c>
@@ -2423,11 +2597,17 @@
       <c r="G50" s="17">
         <v>1</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="H50" s="37">
+        <v>43111</v>
+      </c>
+      <c r="I50" s="37">
+        <v>43111</v>
+      </c>
       <c r="J50" s="12"/>
       <c r="K50" s="13"/>
-      <c r="L50" s="4"/>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
       <c r="M50" s="18" t="s">
         <v>81</v>
       </c>
@@ -2435,7 +2615,7 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="42"/>
       <c r="B51" s="43"/>
-      <c r="C51" s="39"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="16" t="s">
         <v>31</v>
       </c>
@@ -2446,11 +2626,17 @@
       <c r="G51" s="17">
         <v>1</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="H51" s="37">
+        <v>43112</v>
+      </c>
+      <c r="I51" s="37">
+        <v>43112</v>
+      </c>
       <c r="J51" s="12"/>
       <c r="K51" s="13"/>
-      <c r="L51" s="4"/>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
       <c r="M51" s="18" t="s">
         <v>81</v>
       </c>
@@ -2458,7 +2644,7 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="42"/>
       <c r="B52" s="43"/>
-      <c r="C52" s="39"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="16" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2667,7 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="42"/>
       <c r="B53" s="43"/>
-      <c r="C53" s="39"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="16" t="s">
         <v>26</v>
       </c>
@@ -2504,7 +2690,7 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="42"/>
       <c r="B54" s="43"/>
-      <c r="C54" s="39"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -2521,10 +2707,10 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="42"/>
       <c r="B55" s="43"/>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="40" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="16" t="s">
@@ -2546,8 +2732,8 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="42"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="16" t="s">
         <v>72</v>
       </c>
@@ -2567,8 +2753,8 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="16" t="s">
         <v>71</v>
       </c>
@@ -2588,8 +2774,8 @@
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="16" t="s">
         <v>73</v>
       </c>
@@ -2609,8 +2795,8 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="16" t="s">
         <v>69</v>
       </c>
@@ -2630,7 +2816,7 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
-      <c r="C60" s="39"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="35" t="s">
         <v>74</v>
       </c>
@@ -2880,6 +3066,11 @@
     <protectedRange sqref="L2:L70" name="区域3"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="C55:C60"/>
     <mergeCell ref="A2:A38"/>
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="B22:B36"/>
@@ -2896,68 +3087,63 @@
     <mergeCell ref="C61:C69"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="C42:C54"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L62:L70 L2:L60">
-    <cfRule type="cellIs" dxfId="18" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="114" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="115" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="116" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="116" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K60 K62:K70">
-    <cfRule type="cellIs" dxfId="15" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="54" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="55" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="56" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="57" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="58" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61">
-    <cfRule type="cellIs" dxfId="10" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/综合账户-开发计划V0.1.xlsx
+++ b/doc/综合账户-开发计划V0.1.xlsx
@@ -591,11 +591,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -613,175 +613,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -925,8 +757,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1237,8 +1069,8 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P54" activeCellId="1" sqref="L51 P54"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1286,7 +1118,7 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1315,7 +1147,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1174,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1371,7 +1203,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="44" t="s">
         <v>8</v>
       </c>
@@ -1402,9 +1234,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -1431,9 +1263,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1290,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="44"/>
       <c r="C8" s="16" t="s">
         <v>18</v>
@@ -1485,9 +1317,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1514,9 +1346,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
@@ -1541,9 +1373,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="40"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1568,7 +1400,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="44" t="s">
         <v>7</v>
       </c>
@@ -1599,9 +1431,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="44"/>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -1628,9 +1460,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="40"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="16" t="s">
         <v>12</v>
       </c>
@@ -1655,7 +1487,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="44"/>
       <c r="C15" s="16" t="s">
         <v>18</v>
@@ -1682,9 +1514,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1711,9 +1543,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="40"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1738,9 +1570,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="40"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1765,9 +1597,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1794,9 +1626,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1821,9 +1653,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1848,7 +1680,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="41" t="s">
         <v>39</v>
       </c>
@@ -1879,7 +1711,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="16" t="s">
         <v>38</v>
@@ -1906,9 +1738,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1935,9 +1767,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="40"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1962,9 +1794,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="39" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -1993,9 +1825,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
@@ -2022,9 +1854,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="40"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="16" t="s">
         <v>32</v>
       </c>
@@ -2045,9 +1877,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +1900,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="41"/>
       <c r="C30" s="38" t="s">
         <v>66</v>
@@ -2089,12 +1921,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="41"/>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>76</v>
       </c>
       <c r="E31" s="16" t="s">
@@ -2120,10 +1952,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="41"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="16" t="s">
         <v>72</v>
       </c>
@@ -2147,10 +1979,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="16" t="s">
         <v>71</v>
       </c>
@@ -2174,10 +2006,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="39"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="41"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="16" t="s">
         <v>73</v>
       </c>
@@ -2201,10 +2033,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="16" t="s">
         <v>69</v>
       </c>
@@ -2228,9 +2060,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="39"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="35" t="s">
         <v>74</v>
       </c>
@@ -2251,7 +2083,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="38" t="s">
         <v>48</v>
       </c>
@@ -2282,7 +2114,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -2336,7 +2168,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -2365,7 +2197,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
-      <c r="C41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="6" t="s">
         <v>52</v>
       </c>
@@ -2392,7 +2224,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
       <c r="B42" s="43"/>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="39" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -2403,8 +2235,12 @@
       <c r="G42" s="17">
         <v>2</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="H42" s="37">
+        <v>43115</v>
+      </c>
+      <c r="I42" s="37">
+        <v>43116</v>
+      </c>
       <c r="J42" s="12"/>
       <c r="K42" s="13"/>
       <c r="L42" s="4"/>
@@ -2415,8 +2251,8 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="42"/>
       <c r="B43" s="43"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40" t="s">
+      <c r="C43" s="39"/>
+      <c r="D43" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E43" s="16" t="s">
@@ -2444,8 +2280,8 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="42"/>
       <c r="B44" s="43"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="16" t="s">
         <v>43</v>
       </c>
@@ -2471,7 +2307,7 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="42"/>
       <c r="B45" s="43"/>
-      <c r="C45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="16" t="s">
         <v>27</v>
       </c>
@@ -2494,7 +2330,7 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
-      <c r="C46" s="40"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="16" t="s">
         <v>28</v>
       </c>
@@ -2517,7 +2353,7 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
-      <c r="C47" s="40"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="16" t="s">
         <v>65</v>
       </c>
@@ -2540,7 +2376,7 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
-      <c r="C48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="16" t="s">
         <v>37</v>
       </c>
@@ -2563,7 +2399,7 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
-      <c r="C49" s="40"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="16" t="s">
         <v>29</v>
       </c>
@@ -2586,7 +2422,7 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="42"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="40"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="16" t="s">
         <v>30</v>
       </c>
@@ -2615,7 +2451,7 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="42"/>
       <c r="B51" s="43"/>
-      <c r="C51" s="40"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="16" t="s">
         <v>31</v>
       </c>
@@ -2644,7 +2480,7 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="42"/>
       <c r="B52" s="43"/>
-      <c r="C52" s="40"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="16" t="s">
         <v>32</v>
       </c>
@@ -2667,7 +2503,7 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="42"/>
       <c r="B53" s="43"/>
-      <c r="C53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="16" t="s">
         <v>26</v>
       </c>
@@ -2678,8 +2514,12 @@
       <c r="G53" s="17">
         <v>1</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="H53" s="37">
+        <v>43119</v>
+      </c>
+      <c r="I53" s="37">
+        <v>43119</v>
+      </c>
       <c r="J53" s="12"/>
       <c r="K53" s="13"/>
       <c r="L53" s="4"/>
@@ -2690,7 +2530,7 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="42"/>
       <c r="B54" s="43"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -2707,10 +2547,10 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="42"/>
       <c r="B55" s="43"/>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="39" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="16" t="s">
@@ -2732,8 +2572,8 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="42"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="16" t="s">
         <v>72</v>
       </c>
@@ -2753,8 +2593,8 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="16" t="s">
         <v>71</v>
       </c>
@@ -2774,8 +2614,8 @@
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="16" t="s">
         <v>73</v>
       </c>
@@ -2795,8 +2635,8 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="42"/>
       <c r="B59" s="43"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="16" t="s">
         <v>69</v>
       </c>
@@ -2816,7 +2656,7 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
-      <c r="C60" s="40"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="35" t="s">
         <v>74</v>
       </c>
@@ -2892,8 +2732,12 @@
       <c r="G63" s="17">
         <v>1</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="H63" s="37">
+        <v>43117</v>
+      </c>
+      <c r="I63" s="37">
+        <v>43117</v>
+      </c>
       <c r="J63" s="12"/>
       <c r="K63" s="13"/>
       <c r="L63" s="4"/>
@@ -2913,8 +2757,12 @@
       <c r="G64" s="17">
         <v>1</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
+      <c r="H64" s="37">
+        <v>43118</v>
+      </c>
+      <c r="I64" s="37">
+        <v>43118</v>
+      </c>
       <c r="J64" s="12"/>
       <c r="K64" s="13"/>
       <c r="L64" s="4"/>
@@ -3066,11 +2914,6 @@
     <protectedRange sqref="L2:L70" name="区域3"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="C55:C60"/>
     <mergeCell ref="A2:A38"/>
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="B22:B36"/>
@@ -3087,63 +2930,68 @@
     <mergeCell ref="C61:C69"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="C42:C54"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L62:L70 L2:L60">
-    <cfRule type="cellIs" dxfId="36" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="114" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="115" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="116" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="116" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K60 K62:K70">
-    <cfRule type="cellIs" dxfId="33" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="54" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="55" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="56" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="57" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="58" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61">
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="23" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="24" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="17" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="18" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
